--- a/Documents/PTM 491B.xlsx
+++ b/Documents/PTM 491B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="83">
   <si>
     <t>Project</t>
   </si>
@@ -218,10 +218,10 @@
     <t>Sprint #8</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>Apply ML model in either Python/Node.js and show it on a UI</t>
   </si>
   <si>
-    <t>Apply ML model in either Python/Node.js</t>
+    <t>In Progress</t>
   </si>
   <si>
     <t>Test from users perspective</t>
@@ -251,9 +251,6 @@
     <t>Star rating - own user can rate other profile</t>
   </si>
   <si>
-    <t>test model using data set</t>
-  </si>
-  <si>
     <t>Create a map of the local area around school</t>
   </si>
   <si>
@@ -273,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -315,6 +312,10 @@
     <font>
       <sz val="16.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -410,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -560,6 +561,9 @@
     </xf>
     <xf borderId="8" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2531,7 +2535,7 @@
         <v>67</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="48"/>
@@ -2557,10 +2561,10 @@
         <v>43955.0</v>
       </c>
       <c r="O35" s="52">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" s="53">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
@@ -2577,14 +2581,14 @@
     <row r="36">
       <c r="A36" s="54"/>
       <c r="B36" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="46" t="s">
         <v>67</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
@@ -2610,10 +2614,10 @@
         <v>43955.0</v>
       </c>
       <c r="O36" s="52">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="P36" s="53">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="54"/>
@@ -2637,7 +2641,7 @@
         <v>67</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
@@ -2663,10 +2667,10 @@
         <v>43955.0</v>
       </c>
       <c r="O37" s="52">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="P37" s="53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
@@ -2690,7 +2694,7 @@
         <v>67</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
@@ -2716,10 +2720,10 @@
         <v>43955.0</v>
       </c>
       <c r="O38" s="52">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="P38" s="53">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
@@ -2743,7 +2747,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F39" s="46"/>
       <c r="G39" s="48"/>
@@ -2769,10 +2773,10 @@
         <v>43955.0</v>
       </c>
       <c r="O39" s="52">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="P39" s="53">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q39" s="54"/>
       <c r="R39" s="54"/>
@@ -2796,7 +2800,7 @@
         <v>67</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F40" s="46"/>
       <c r="G40" s="48"/>
@@ -2822,10 +2826,10 @@
         <v>43955.0</v>
       </c>
       <c r="O40" s="52">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="P40" s="53">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q40" s="54"/>
       <c r="R40" s="54"/>
@@ -2849,7 +2853,7 @@
         <v>67</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
@@ -2875,10 +2879,10 @@
         <v>43955.0</v>
       </c>
       <c r="O41" s="52">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="P41" s="53">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q41" s="54"/>
       <c r="R41" s="54"/>
@@ -2902,7 +2906,7 @@
         <v>67</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
@@ -2928,10 +2932,10 @@
         <v>43955.0</v>
       </c>
       <c r="O42" s="52">
-        <v>0.0</v>
+        <v>0.85</v>
       </c>
       <c r="P42" s="53">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q42" s="54"/>
       <c r="R42" s="54"/>
@@ -2955,15 +2959,15 @@
         <v>67</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F43" s="46"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I43" s="50" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J43" s="51">
         <v>43936.0</v>
@@ -2972,7 +2976,7 @@
         <v>43955.0</v>
       </c>
       <c r="L43" s="46">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="M43" s="51">
         <v>43936.0</v>
@@ -2981,10 +2985,10 @@
         <v>43955.0</v>
       </c>
       <c r="O43" s="52">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="P43" s="53">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
@@ -2998,69 +3002,57 @@
       <c r="Z43" s="54"/>
       <c r="AA43" s="54"/>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" s="51">
-        <v>43936.0</v>
-      </c>
-      <c r="K44" s="51">
-        <v>43955.0</v>
-      </c>
-      <c r="L44" s="46">
-        <v>11.0</v>
-      </c>
-      <c r="M44" s="51">
-        <v>43936.0</v>
-      </c>
-      <c r="N44" s="51">
-        <v>43955.0</v>
-      </c>
-      <c r="O44" s="52">
-        <v>0.0</v>
-      </c>
-      <c r="P44" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="B45" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="57">
+        <f>SUM(P29:P44)</f>
+        <v>91</v>
+      </c>
+      <c r="E45" s="58"/>
+      <c r="F45" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="59">
+        <f>(SUM(O29:O44)/COUNT(O29:O44))*100</f>
+        <v>76.33333333</v>
+      </c>
+      <c r="I45" s="58" t="s">
+        <v>82</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3068,7 +3060,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="Q45" s="60"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -3082,26 +3074,14 @@
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57">
-        <f>SUM(P29:P45)</f>
-        <v>27</v>
-      </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="56"/>
-      <c r="H46" s="59">
-        <f>(SUM(O29:O45)/COUNT(O29:O45))*100</f>
-        <v>27.1875</v>
-      </c>
-      <c r="I46" s="58" t="s">
-        <v>83</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -30004,37 +29984,8 @@
       <c r="Z973" s="1"/>
       <c r="AA973" s="1"/>
     </row>
-    <row r="974">
-      <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1"/>
-      <c r="F974" s="1"/>
-      <c r="G974" s="1"/>
-      <c r="H974" s="1"/>
-      <c r="I974" s="1"/>
-      <c r="J974" s="1"/>
-      <c r="K974" s="1"/>
-      <c r="L974" s="1"/>
-      <c r="M974" s="1"/>
-      <c r="N974" s="1"/>
-      <c r="O974" s="1"/>
-      <c r="P974" s="1"/>
-      <c r="Q974" s="1"/>
-      <c r="R974" s="1"/>
-      <c r="S974" s="1"/>
-      <c r="T974" s="1"/>
-      <c r="U974" s="1"/>
-      <c r="V974" s="1"/>
-      <c r="W974" s="1"/>
-      <c r="X974" s="1"/>
-      <c r="Y974" s="1"/>
-      <c r="Z974" s="1"/>
-      <c r="AA974" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="46">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -30072,9 +30023,8 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
